--- a/Resources/data_resources.xlsx
+++ b/Resources/data_resources.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>clientName</t>
   </si>
@@ -22,55 +22,31 @@
     <t>Malick 1</t>
   </si>
   <si>
-    <t>malicko1@agiltoo.fr</t>
+    <t>milk-agiltoo1@agiltoo.fr</t>
   </si>
   <si>
     <t>Malick 2</t>
   </si>
   <si>
-    <t>malicko2@agiltoo.fr</t>
+    <t>milk-agiltoo2@agiltoo.fr</t>
   </si>
   <si>
     <t>Malick 3</t>
   </si>
   <si>
-    <t>malicko3@agiltoo.fr</t>
+    <t>milk-agiltoo3@agiltoo.fr</t>
   </si>
   <si>
     <t>Malick 4</t>
   </si>
   <si>
-    <t>malicko4@agiltoo.fr</t>
+    <t>milk-agiltoo4@agiltoo.fr</t>
   </si>
   <si>
     <t>Malick 5</t>
   </si>
   <si>
-    <t>malicko5@agiltoo.fr</t>
-  </si>
-  <si>
-    <t>Malick 6</t>
-  </si>
-  <si>
-    <t>malicko6@agiltoo.fr</t>
-  </si>
-  <si>
-    <t>Malick 7</t>
-  </si>
-  <si>
-    <t>malicko7@agiltoo.fr</t>
-  </si>
-  <si>
-    <t>Malick 8</t>
-  </si>
-  <si>
-    <t>malicko8@agiltoo.fr</t>
-  </si>
-  <si>
-    <t>Malick 9</t>
-  </si>
-  <si>
-    <t>malicko9@agiltoo.fr</t>
+    <t>milk-agiltoo5@agiltoo.fr</t>
   </si>
 </sst>
 </file>
@@ -389,36 +365,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
